--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -259,9 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,6 +304,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,153 +636,153 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>1000</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2088</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2087</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2087</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2087</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>1000</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.38696735669115201</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.44552348551585103</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.47185250211714902</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.529911560134815</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>5000</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2085</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2085</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2085</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>2085</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>5000</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>2.15014956321613</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>2.1183815729501099</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>2.1438159543309299</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>2.8854915460591002</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>10000</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2085</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>2085</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>2085</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2085</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>10000</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>4.2091457881117904</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>4.1051196809869603</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>4.4380060799426602</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>5.6968680358119697</v>
       </c>
     </row>
@@ -793,153 +793,153 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>7</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>1000</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>1366</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1352</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1342</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1367</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>1000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.81615374710275501</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>0.94029346760441002</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>1.0208886465723299</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>1.35212237621927</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>5000</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>1345</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1318</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1312</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>1319</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>5000</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>4.5869835035911501</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>4.8342692725120999</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>5.1134408530723601</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>6.6962942088614303</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>10000</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>1283</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>1303</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1299</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>1327</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>10000</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>8.7460424765665508</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>9.4965607002971097</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>10.5437454906297</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>13.2524777265211</v>
       </c>
     </row>
@@ -950,153 +950,153 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>7</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>1000</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>5948</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>5920</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>5948</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>5893</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>1000</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>5.11342916211896</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>5.0805063541668698</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>5.7912049139617299</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>7.8067512980514104</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>5000</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>5744</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>5948</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>5910</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>5810</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>5000</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>23.105868989367501</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>26.645302471015601</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>31.3740660195656</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>41.588393025643498</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>10000</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>5894</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>5748</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>5941</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>5912</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>10000</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>43.091145673652697</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>54.707376103454401</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>59.847266223002499</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>81.702227926994397</v>
       </c>
     </row>
@@ -1107,134 +1107,170 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>7</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>7</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>1000</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>8789</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="15">
+      <c r="C30" s="3">
+        <v>8789</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8789</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8789</v>
+      </c>
+      <c r="G30" s="14">
         <v>1000</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>50.128741635292599</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
+      <c r="I30" s="6">
+        <v>71.406227644719095</v>
+      </c>
+      <c r="J30" s="6">
+        <v>58.367133751517699</v>
+      </c>
+      <c r="K30" s="7">
+        <v>152.51930729799</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>5000</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>8789</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="G31" s="15">
+      <c r="C31" s="6">
+        <v>8789</v>
+      </c>
+      <c r="D31" s="6">
+        <v>8789</v>
+      </c>
+      <c r="E31" s="7">
+        <v>8789</v>
+      </c>
+      <c r="G31" s="14">
         <v>5000</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>232.05033642781501</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
+      <c r="I31" s="6">
+        <v>405.34160708664899</v>
+      </c>
+      <c r="J31" s="6">
+        <v>465.57881909953397</v>
+      </c>
+      <c r="K31" s="7">
+        <v>543.86826505647298</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>10000</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>8789</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="G32" s="16">
+      <c r="C32" s="9">
+        <v>8789</v>
+      </c>
+      <c r="D32" s="9">
+        <v>8789</v>
+      </c>
+      <c r="E32" s="10">
+        <v>8789</v>
+      </c>
+      <c r="G32" s="15">
         <v>10000</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>475.20379738297498</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
+      <c r="I32" s="9">
+        <v>677.077774916301</v>
+      </c>
+      <c r="J32" s="9">
+        <v>811.86554716529895</v>
+      </c>
+      <c r="K32" s="10">
+        <v>948.41402235630198</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
